--- a/output_data/charts/capacity-KnoxCounty-0500000US39083.xlsx
+++ b/output_data/charts/capacity-KnoxCounty-0500000US39083.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -513,13 +513,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>19200</c:v>
+                  <c:v>19.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3840</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,7 +850,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6000</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -862,46 +862,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1700</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1400000</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13200</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84200</c:v>
+                  <c:v>84.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40900</c:v>
+                  <c:v>40.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55000</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>47600</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>167700</c:v>
+                  <c:v>167.7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>152400</c:v>
+                  <c:v>152.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>261600</c:v>
+                  <c:v>261.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>141210</c:v>
+                  <c:v>141.21</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>269400</c:v>
+                  <c:v>269.4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>394772</c:v>
+                  <c:v>394.772</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>271035</c:v>
+                  <c:v>271.035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>6000</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>1700</v>
+        <v>1.7</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1400000</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>13200</v>
+        <v>13.2</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>84200</v>
+        <v>84.2</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>40900</v>
+        <v>40.9</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>55000</v>
+        <v>55</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>47600</v>
+        <v>47.6</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>167700</v>
+        <v>167.7</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>152400</v>
+        <v>152.4</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>261600</v>
+        <v>261.6</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>141210</v>
+        <v>141.21</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>269400</v>
+        <v>269.4</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>19200</v>
+        <v>19.2</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>394772</v>
+        <v>394.772</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>3840</v>
+        <v>3.84</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>271035</v>
+        <v>271.035</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-KnoxCounty-0500000US39083.xlsx
+++ b/output_data/charts/capacity-KnoxCounty-0500000US39083.xlsx
@@ -901,7 +901,7 @@
                   <c:v>394.772</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>271.035</c:v>
+                  <c:v>353.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>271.035</v>
+        <v>353.51</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
